--- a/IV_collagen/EXPRESSION/Table2.xlsx
+++ b/IV_collagen/EXPRESSION/Table2.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E762668-FFB1-4D25-8076-6146A6FB02F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E695877F-BEEC-4E47-B24D-EC306CD4AD56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
   <si>
     <t>Table2.Average expression level of collagen IV genes from human and chimpanzee genomes in all the five tissues.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,17 +88,121 @@
   <si>
     <t>Chimpanzee</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tissue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group/Species name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Table3. The coefficient of variation of the expression level values for collagen IV genes within species and within different groups in all the five tissues. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orthologous1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>human</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chimpanzee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kidney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orthologous2</t>
+  </si>
+  <si>
+    <t>Orthologous3</t>
+  </si>
+  <si>
+    <t>Orthologous4</t>
+  </si>
+  <si>
+    <t>Orthologous5</t>
+  </si>
+  <si>
+    <t>Orthologous6</t>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain_within_groups</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain_within_species</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart_within_groups</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart_within_species</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kidney_within_groups</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kidney_within_species</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver_within_groups</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver_within_species</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testis_within_groups</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testis_within_species</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +220,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -172,32 +284,44 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,7 +650,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -548,12 +672,12 @@
         <v>8.8766032587800545</v>
       </c>
       <c r="H3" s="3">
-        <f>STDEV(C3:G3)/AVERAGE(C3:G3)</f>
+        <f t="shared" ref="H3:H8" si="0">STDEV(C3:G3)/AVERAGE(C3:G3)</f>
         <v>0.13425683227691151</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -573,12 +697,12 @@
         <v>9.1285019293045995</v>
       </c>
       <c r="H4" s="3">
-        <f>STDEV(C4:G4)/AVERAGE(C4:G4)</f>
+        <f t="shared" si="0"/>
         <v>0.14214737803515087</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -598,12 +722,12 @@
         <v>6.0714249003676644</v>
       </c>
       <c r="H5" s="3">
-        <f>STDEV(C5:G5)/AVERAGE(C5:G5)</f>
+        <f t="shared" si="0"/>
         <v>8.359468294709442E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -623,12 +747,12 @@
         <v>6.6997801383242361</v>
       </c>
       <c r="H6" s="3">
-        <f>STDEV(C6:G6)/AVERAGE(C6:G6)</f>
+        <f t="shared" si="0"/>
         <v>0.10441264369402466</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -648,12 +772,12 @@
         <v>7.2446093173800739</v>
       </c>
       <c r="H7" s="3">
-        <f>STDEV(C7:G7)/AVERAGE(C7:G7)</f>
+        <f t="shared" si="0"/>
         <v>8.2183775133525053E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -673,30 +797,30 @@
         <v>6.3460054323394406</v>
       </c>
       <c r="H8" s="3">
-        <f>STDEV(C8:G8)/AVERAGE(C8:G8)</f>
+        <f t="shared" si="0"/>
         <v>5.64486800213016E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="3">
         <f>AVERAGE(H3:H8)</f>
         <v>0.10050733201800137</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -714,14 +838,14 @@
       <c r="G10">
         <v>9.7680752552231489</v>
       </c>
-      <c r="H10" s="11">
-        <f>STDEV(C10:G10)/AVERAGE(C10:G10)</f>
+      <c r="H10" s="9">
+        <f t="shared" ref="H10:H15" si="1">STDEV(C10:G10)/AVERAGE(C10:G10)</f>
         <v>0.12739328085198981</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -739,14 +863,14 @@
       <c r="G11">
         <v>8.3025890389871382</v>
       </c>
-      <c r="H11" s="11">
-        <f>STDEV(C11:G11)/AVERAGE(C11:G11)</f>
+      <c r="H11" s="9">
+        <f t="shared" si="1"/>
         <v>0.14468577490728779</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -764,14 +888,14 @@
       <c r="G12">
         <v>6.0068303887697523</v>
       </c>
-      <c r="H12" s="11">
-        <f>STDEV(C12:G12)/AVERAGE(C12:G12)</f>
+      <c r="H12" s="9">
+        <f t="shared" si="1"/>
         <v>1.6288531157111676E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -789,14 +913,14 @@
       <c r="G13">
         <v>6.8304553326102146</v>
       </c>
-      <c r="H13" s="11">
-        <f>STDEV(C13:G13)/AVERAGE(C13:G13)</f>
+      <c r="H13" s="9">
+        <f t="shared" si="1"/>
         <v>8.7623897946220344E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -814,14 +938,14 @@
       <c r="G14">
         <v>6.1834044809053186</v>
       </c>
-      <c r="H14" s="11">
-        <f>STDEV(C14:G14)/AVERAGE(C14:G14)</f>
+      <c r="H14" s="9">
+        <f t="shared" si="1"/>
         <v>6.8367965472247882E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -839,22 +963,22 @@
       <c r="G15">
         <v>6.1932344346843822</v>
       </c>
-      <c r="H15" s="11">
-        <f>STDEV(C15:G15)/AVERAGE(C15:G15)</f>
+      <c r="H15" s="9">
+        <f t="shared" si="1"/>
         <v>3.2351244195381428E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12">
         <f>AVERAGE(H10:H15)</f>
         <v>7.9451782421706488E-2</v>
       </c>
@@ -867,4 +991,443 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0459CE88-916F-4A3B-B7DB-1A231C2F2F96}">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IV_collagen/EXPRESSION/Table2.xlsx
+++ b/IV_collagen/EXPRESSION/Table2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E695877F-BEEC-4E47-B24D-EC306CD4AD56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE4914D-2FA1-43D9-8069-8932F5182262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -997,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0459CE88-916F-4A3B-B7DB-1A231C2F2F96}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
